--- a/biology/Zoologie/Garrulaxe_d'Elliot/Garrulaxe_d'Elliot.xlsx
+++ b/biology/Zoologie/Garrulaxe_d'Elliot/Garrulaxe_d'Elliot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Garrulaxe_d%27Elliot</t>
+          <t>Garrulaxe_d'Elliot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trochalopteron elliotii
 Le Garrulaxe d'Elliot (Trochalopteron elliotii) est une espèce d'oiseaux de la famille des Leiothrichidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Garrulaxe_d%27Elliot</t>
+          <t>Garrulaxe_d'Elliot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Trochalopteron elliotii a été décrite pour la première fois en 1870 par l'ornithologue français Jules Verreaux (1807-1873)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Trochalopteron elliotii a été décrite pour la première fois en 1870 par l'ornithologue français Jules Verreaux (1807-1873),.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Garrulaxe_d%27Elliot</t>
+          <t>Garrulaxe_d'Elliot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend à travers le centre de la Chine et le Nord du Yunnan.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Garrulaxe_d%27Elliot</t>
+          <t>Garrulaxe_d'Elliot</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,13 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (14 mai 2022)[3] :
-sous-espèce Trochalopteron elliotii elliotii J. P. Verreaux, 1871[1]
-sous-espèce Trochalopteron elliotii przewalskii Menzbier, 1887[1]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (14 mai 2022) :
+sous-espèce Trochalopteron elliotii elliotii J. P. Verreaux, 1871
+sous-espèce Trochalopteron elliotii przewalskii Menzbier, 1887</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Garrulaxe_d%27Elliot</t>
+          <t>Garrulaxe_d'Elliot</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,6 +625,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
